--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,12 +479,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -575,17 +575,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -707,22 +707,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS261</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -803,12 +803,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -867,12 +867,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,17 +480,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -506,22 +507,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS261</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -565,12 +566,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,12 +581,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,17 +608,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -634,12 +635,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +650,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -707,14 +708,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>CS263</t>
@@ -722,12 +723,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,7 +740,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -749,17 +750,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -803,17 +804,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -840,22 +841,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -872,7 +873,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -888,6 +889,177 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dr. Anand Barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Operating System</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-0-0-4-2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dr. Somes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA265</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -502,12 +502,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS269 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS265</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS265</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS268</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS269</t>
         </is>
       </c>
     </row>
@@ -598,27 +598,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS268</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>CS268</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS265</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA265</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -708,27 +708,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS269 (Tutorial)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>MA265</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS265</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS268</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA265</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -804,17 +804,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS265</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS265</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS268</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS268</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA265</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Advanced Calculus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Anand Barangi</t>
+          <t>Dr. Meena Patel</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS265</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Operating System</t>
+          <t>System Software</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +999,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Somes</t>
+          <t>Dr. Rajeev Malhotra</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS268</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Design &amp; Analysis of Algorithms</t>
+          <t>Algorithm Design</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,19 +1029,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Prabhu Prasad</t>
+          <t>Dr. Ananya Das</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS269</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Network Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Prabhu Prasad</t>
+          <t>Dr. Ananya Das</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA265</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS269 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,12 +518,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -571,12 +572,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,7 +587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -598,27 +599,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -630,12 +631,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -645,12 +646,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA265</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -708,7 +709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS269 (Tutorial)</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -723,12 +724,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA265</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -740,7 +741,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -750,12 +751,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA265</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -809,22 +810,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -841,12 +842,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -868,12 +869,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -883,12 +884,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
     </row>
@@ -946,12 +947,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA265</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advanced Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +970,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Meena Patel</t>
+          <t>Dr. Anand Barangi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS265</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>System Software</t>
+          <t>Operating System</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +1000,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Rajeev Malhotra</t>
+          <t>Dr. Somes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS268</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Algorithm Design</t>
+          <t>Design &amp; Analysis of Algorithms</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,19 +1030,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Ananya Das</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS269</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Network Systems</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1059,11 +1060,29 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Ananya Das</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
     </row>
@@ -503,22 +503,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -572,22 +572,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS261</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -837,27 +837,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS261</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS261</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS263</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS263</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
@@ -599,12 +599,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,6 +652,166 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -666,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +874,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -746,17 +906,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -805,27 +965,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS263</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CS263</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -837,22 +997,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS264 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -869,27 +1029,187 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS264</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS264</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS261</t>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS264 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -904,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,10 +1255,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Lectures/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Instructor</t>
         </is>
@@ -968,7 +1298,13 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dr. Anand Barangi</t>
         </is>
@@ -996,9 +1332,15 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dr. Somes</t>
         </is>
@@ -1026,9 +1368,15 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dr. Prabhu Prasad</t>
         </is>
@@ -1056,9 +1404,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dr. Prabhu Prasad</t>
         </is>

--- a/backend/output_timetables/sem3_timetable.xlsx
+++ b/backend/output_timetables/sem3_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS263</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS264</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -508,29 +508,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS264</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,14 +651,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -682,134 +682,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>CS264 (Tutorial)</t>
         </is>
@@ -826,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,7 +736,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -874,7 +746,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -901,34 +773,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -960,17 +832,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -980,29 +852,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS261</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS264 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1024,12 +896,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1039,12 +911,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS264</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MA261</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1056,7 +928,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1080,134 +952,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CS264 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
